--- a/hidden/tab.xlsx
+++ b/hidden/tab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14580"/>
+    <workbookView windowWidth="23440" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>CCF</t>
     </r>
     <r>
@@ -45,6 +51,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>DBLP</t>
     </r>
     <r>
@@ -59,6 +71,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>CFP</t>
     </r>
     <r>
@@ -160,6 +178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>40-60</t>
     </r>
     <r>
@@ -181,6 +205,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>计算机图形学与多媒体</t>
     </r>
     <r>
@@ -202,6 +232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>（未更新）</t>
     </r>
     <r>
@@ -217,6 +253,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>（未更新）</t>
     </r>
     <r>
@@ -234,7 +276,7 @@
     <t>海得拉巴</t>
   </si>
   <si>
-    <t>40%+</t>
+    <t>~40%</t>
   </si>
   <si>
     <t>follow 一下 Liang Kaitai
@@ -249,6 +291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>网络与信息安全</t>
     </r>
     <r>
@@ -271,6 +319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>（未更新）</t>
     </r>
     <r>
@@ -286,6 +340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>（未更新）</t>
     </r>
     <r>
@@ -301,6 +361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>（未更新）</t>
     </r>
     <r>
@@ -316,6 +382,9 @@
   </si>
   <si>
     <t>埃克塞特</t>
+  </si>
+  <si>
+    <t>~28%</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,9 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,8 +1070,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1534,8 +1600,8 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1580,7 +1646,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1588,25 +1654,25 @@
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>45422</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>45493</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>45589</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1615,40 +1681,40 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>45753</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1656,149 +1722,151 @@
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="12"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="12"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="12"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="12"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="12"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="12"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
